--- a/TaRGET metadata template v2.0.xlsx
+++ b/TaRGET metadata template v2.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xiaoyu/GitHub/target_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\OneDrive\Documents\Work\Wang lab\Target\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27500" windowHeight="12280" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36870" windowHeight="13485" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -56,15 +56,9 @@
     <definedName name="True_false">Lists!$B$1:$B$2</definedName>
     <definedName name="Yes_no">Lists!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -77,7 +71,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +177,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +404,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="Y2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0">
+    <comment ref="Z2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0">
+    <comment ref="AA2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AB2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0">
+    <comment ref="AD2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +655,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -733,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +761,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +894,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1167,7 +1161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0">
+    <comment ref="V2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1249,7 +1243,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1301,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1403,7 +1397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1476,7 +1470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1530,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1608,7 +1602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1681,7 +1675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1705,7 +1699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1729,7 +1723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1753,7 +1747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1777,7 +1771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1801,7 +1795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1829,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1859,7 +1853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1883,7 +1877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1907,7 +1901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1980,7 +1974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2015,7 +2009,7 @@
     <author>Erica Pehrsson</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2039,7 +2033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2087,7 +2081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2111,7 +2105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2135,7 +2129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2159,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2183,7 +2177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2207,7 +2201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2237,7 +2231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="275">
   <si>
     <t>Platform</t>
   </si>
@@ -3062,340 +3056,13 @@
   </si>
   <si>
     <t>(USRFF####)</t>
-  </si>
-  <si>
-    <t>ge</t>
-  </si>
-  <si>
-    <t>Lab1</t>
-  </si>
-  <si>
-    <t>Michael Synder</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>Department of Genetics</t>
-  </si>
-  <si>
-    <t>300 Pasteur Dr., M-344</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>RFA-HG-16-002</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Project1</t>
-  </si>
-  <si>
-    <t>Comparison of the transcriptional landscapes between human and mouse tissues.</t>
-  </si>
-  <si>
-    <t>Map the binding sites of transcription factors in mouse cell lines orthologous to well-studied human cell lines.</t>
-  </si>
-  <si>
-    <t>RNA-seq for 13 mice</t>
-  </si>
-  <si>
-    <t>Project2</t>
-  </si>
-  <si>
-    <t>A map of cis-regulatory sequences in the mouse genome.</t>
-  </si>
-  <si>
-    <t>Catalog chromatin structure in mouse cells by mapping histone modifications and identifying sites of DNA methylation. Functionally characterize regulatory elements using transgenic mice.</t>
-  </si>
-  <si>
-    <t>ChIP-seq targeting four histone modifications in 20 mice, 2 tissues</t>
-  </si>
-  <si>
-    <t>Litter1</t>
-  </si>
-  <si>
-    <t>Other cages experienced increased pup mortality.</t>
-  </si>
-  <si>
-    <t>Mouse1</t>
-  </si>
-  <si>
-    <t>Mouse2</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>The Jackson Laboratory</t>
-  </si>
-  <si>
-    <t>Q345AB</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>Q345BC</t>
-  </si>
-  <si>
-    <t>Mouse3</t>
-  </si>
-  <si>
-    <t>Q345QL</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Mouse4</t>
-  </si>
-  <si>
-    <t>Q345MP</t>
-  </si>
-  <si>
-    <t>Mouse5</t>
-  </si>
-  <si>
-    <t>Q345LP</t>
-  </si>
-  <si>
-    <t>ControlDiet</t>
-  </si>
-  <si>
-    <t>Treatment1</t>
-  </si>
-  <si>
-    <t>3 months</t>
-  </si>
-  <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t>JL Rat and Mouse/Auto 6F 5K67</t>
-  </si>
-  <si>
-    <t>LabDiet</t>
-  </si>
-  <si>
-    <t>AB930MK</t>
-  </si>
-  <si>
-    <t>Refrigerated</t>
-  </si>
-  <si>
-    <t>ChallengeDiet</t>
-  </si>
-  <si>
-    <t>Western diet</t>
-  </si>
-  <si>
-    <t>Jeff Gordon lab</t>
-  </si>
-  <si>
-    <t>Not refrigerated</t>
-  </si>
-  <si>
-    <t>1 mg</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>3 weeks</t>
-  </si>
-  <si>
-    <t>10 weeks</t>
-  </si>
-  <si>
-    <t>Sample1</t>
-  </si>
-  <si>
-    <t>Alicia Keys</t>
-  </si>
-  <si>
-    <t>Weight: 2g</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>UBERON_0000948</t>
-  </si>
-  <si>
-    <t>5 months</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>Mouse 4</t>
-  </si>
-  <si>
-    <t>Sample3</t>
-  </si>
-  <si>
-    <t>Primary cells</t>
-  </si>
-  <si>
-    <t>Oliver Sachs</t>
-  </si>
-  <si>
-    <t>0 days</t>
-  </si>
-  <si>
-    <t>Library1</t>
-  </si>
-  <si>
-    <t>300 mg</t>
-  </si>
-  <si>
-    <t>Whole cell</t>
-  </si>
-  <si>
-    <t>polyA mRNA, rRNA-depleted</t>
-  </si>
-  <si>
-    <t>Library2</t>
-  </si>
-  <si>
-    <t>Melissa McCarthy</t>
-  </si>
-  <si>
-    <t>Assay1</t>
-  </si>
-  <si>
-    <t>Antibody1</t>
-  </si>
-  <si>
-    <t>Assay2</t>
-  </si>
-  <si>
-    <t>7/4/1776</t>
-  </si>
-  <si>
-    <t>John Adams</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>H3K27Ac_(39133)</t>
-  </si>
-  <si>
-    <t>Active Motif</t>
-  </si>
-  <si>
-    <t>Protein A chromatography</t>
-  </si>
-  <si>
-    <t>Confirmed by..</t>
-  </si>
-  <si>
-    <t>File1</t>
-  </si>
-  <si>
-    <t>chip_h3K27ac.fastq</t>
-  </si>
-  <si>
-    <t>43c191bf6d6c3f263a8cd0efd4a058ab</t>
-  </si>
-  <si>
-    <t>530 mb</t>
-  </si>
-  <si>
-    <t>File2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>aagggcctttttt</t>
-  </si>
-  <si>
-    <t>AATCGAT</t>
-  </si>
-  <si>
-    <t>SQL4821A</t>
-  </si>
-  <si>
-    <t>Ting Wang</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>chip_control1.fastq</t>
-  </si>
-  <si>
-    <t>71f920fa275127a7b60fa4d4d41432a3</t>
-  </si>
-  <si>
-    <t>928 MB</t>
-  </si>
-  <si>
-    <t>qia</t>
-  </si>
-  <si>
-    <t>1p</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>juvenile (5-10 wk)</t>
-  </si>
-  <si>
-    <t>Stool</t>
-  </si>
-  <si>
-    <t>Liver</t>
-  </si>
-  <si>
-    <t>Blood - monocyte</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>fdg</t>
-  </si>
-  <si>
-    <t>H2000</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>aw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3473,33 +3140,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3530,14 +3170,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3548,10 +3184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3624,113 +3266,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4012,62 +3552,62 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27" style="9" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="24.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="35" style="9" customWidth="1"/>
-    <col min="16" max="16" width="29.5" style="9" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="24.5" style="9" customWidth="1"/>
-    <col min="19" max="19" width="22.1640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.83203125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="23.83203125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="21.5" style="9" customWidth="1"/>
-    <col min="24" max="24" width="22.6640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="20.5" style="9" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="9" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="9" customWidth="1"/>
-    <col min="30" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="71.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="27" style="11" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="35" style="11" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" style="11" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="11" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" style="11" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" style="11" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="10:16" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:16" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J37" s="2"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -4080,197 +3620,121 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="9">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>284</v>
-      </c>
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>326</v>
-      </c>
-      <c r="L4" t="s">
-        <v>284</v>
-      </c>
-      <c r="M4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" t="s">
-        <v>284</v>
-      </c>
-      <c r="O4" t="s">
-        <v>284</v>
-      </c>
-      <c r="P4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>349</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>True_false</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" sqref="E3">
@@ -4293,110 +3757,86 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38155</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30508004</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>353</v>
-      </c>
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -4417,358 +3857,211 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="22" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="22"/>
-    <col min="6" max="6" width="12.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="22"/>
-    <col min="9" max="9" width="17.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="22"/>
-    <col min="11" max="11" width="11.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="22"/>
-    <col min="14" max="14" width="12.5" style="22" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="22"/>
-    <col min="16" max="16" width="11.33203125" style="22" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="22" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="22" customWidth="1"/>
-    <col min="19" max="19" width="22.83203125" style="22" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" style="22" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="22"/>
-    <col min="22" max="22" width="13.83203125" style="22" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" style="22" customWidth="1"/>
-    <col min="25" max="25" width="14.5" style="22" customWidth="1"/>
-    <col min="26" max="26" width="16.1640625" style="22" customWidth="1"/>
-    <col min="27" max="27" width="8.83203125" style="22"/>
-    <col min="28" max="28" width="17" style="22" customWidth="1"/>
-    <col min="29" max="29" width="17.5" style="22" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="22" customWidth="1"/>
-    <col min="31" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="17.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="12.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="24"/>
+    <col min="9" max="9" width="17.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="11" max="11" width="11.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="24"/>
+    <col min="14" max="14" width="12.42578125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="24"/>
+    <col min="16" max="16" width="11.28515625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="24"/>
+    <col min="22" max="22" width="13.85546875" style="24" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="24" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="24" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="24" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="24"/>
+    <col min="28" max="28" width="17" style="24" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="24" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="24" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="23">
-        <v>36</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>15</v>
-      </c>
-      <c r="R3" s="15">
-        <v>300</v>
-      </c>
-      <c r="S3" s="15">
-        <v>100</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB3" s="24">
-        <v>42665</v>
-      </c>
-      <c r="AC3" s="24">
-        <v>42667</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="22">
-        <v>36</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>15</v>
-      </c>
-      <c r="R4" s="22">
-        <v>300</v>
-      </c>
-      <c r="S4" s="22">
-        <v>100</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA4" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>42665</v>
-      </c>
-      <c r="AC4" s="22">
-        <v>42667</v>
-      </c>
-      <c r="AD4" s="22" t="s">
-        <v>284</v>
-      </c>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" showInputMessage="1" sqref="P3">
+    <dataValidation type="list" showInputMessage="1" sqref="N3">
       <formula1>instrument</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="N3">
+    <dataValidation type="list" showInputMessage="1" sqref="M3">
       <formula1>platform</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J3">
@@ -4794,505 +4087,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="18"/>
-    <col min="3" max="4" width="9" style="15"/>
-    <col min="5" max="5" width="23.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="30" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9" style="18"/>
-    <col min="10" max="10" width="11" style="18" customWidth="1"/>
-    <col min="11" max="11" width="18" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9" style="18"/>
-    <col min="13" max="13" width="13.1640625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="18" customWidth="1"/>
-    <col min="16" max="18" width="9" style="18"/>
-    <col min="19" max="19" width="15.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="20.5" style="18" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="18" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" style="18" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="9" style="20"/>
+    <col min="3" max="4" width="9" style="17"/>
+    <col min="5" max="5" width="23.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="30" style="20" customWidth="1"/>
+    <col min="8" max="9" width="9" style="20"/>
+    <col min="10" max="10" width="11" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9" style="20"/>
+    <col min="13" max="13" width="13.140625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="20" customWidth="1"/>
+    <col min="16" max="18" width="9" style="20"/>
+    <col min="19" max="19" width="15.42578125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="20" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="20" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="20" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="18" t="b">
+      <c r="B1" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="18" t="b">
+      <c r="B2" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E3" s="15" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E4" s="15" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E4" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E5" s="15" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E5" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="N5" s="18" t="s">
+      <c r="L5" s="11"/>
+      <c r="N5" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E6" s="15" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="N6" s="18" t="s">
+      <c r="L6" s="11"/>
+      <c r="N6" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G7" s="18" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G8" s="18" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="G9" s="18" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G9" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="K10" s="18" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K10" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="K11" s="18" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K11" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="K12" s="18" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K12" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N13" s="18" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N13" s="20" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N14" s="18" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N14" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N15" s="18" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N15" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N16" s="18" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N16" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17" s="18" t="s">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18" s="18" t="s">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="18" t="s">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N20" s="18" t="s">
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21" s="18" t="s">
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N22" s="18" t="s">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23" s="18" t="s">
+    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N24" s="18" t="s">
+    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N25" s="18" t="s">
+    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N26" s="18" t="s">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N27" s="18" t="s">
+    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N28" s="18" t="s">
+    <row r="28" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N29" s="18" t="s">
+    <row r="29" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="20" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N30" s="18" t="s">
+    <row r="30" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="20" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N31" s="18" t="s">
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N32" s="18" t="s">
+    <row r="32" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N33" s="18" t="s">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N34" s="18" t="s">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N35" s="18" t="s">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N36" s="18" t="s">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N37" s="18" t="s">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N38" s="18" t="s">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="20" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5309,124 +4602,82 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="I3" s="26">
-        <v>94305</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>284</v>
-      </c>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
-      <formula>LEN(TRIM(E3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:K3">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
-      <formula>LEN(TRIM(F3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5434,118 +4685,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>276</v>
-      </c>
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:E5">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
-      <formula>LEN(TRIM(D5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E3">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
-      <formula>LEN(TRIM(C3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E4">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(C4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5556,132 +4746,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32">
-        <v>42664</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>285</v>
-      </c>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5691,471 +4845,144 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-    </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="8">
-        <v>140.4</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="8">
-        <v>140.4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>284</v>
-      </c>
-      <c r="P4" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>284</v>
-      </c>
-      <c r="R4" t="s">
-        <v>309</v>
-      </c>
-      <c r="S4" t="s">
-        <v>310</v>
-      </c>
-      <c r="T4" t="s">
-        <v>284</v>
-      </c>
-      <c r="U4" t="s">
-        <v>284</v>
-      </c>
-      <c r="V4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="8">
-        <v>140.4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>284</v>
-      </c>
-      <c r="P5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>293</v>
-      </c>
-      <c r="R5" t="s">
-        <v>309</v>
-      </c>
-      <c r="S5" t="s">
-        <v>310</v>
-      </c>
-      <c r="T5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U5" t="s">
-        <v>307</v>
-      </c>
-      <c r="V5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K6" s="8">
-        <v>140.4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>284</v>
-      </c>
-      <c r="P6" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>293</v>
-      </c>
-      <c r="R6" t="s">
-        <v>309</v>
-      </c>
-      <c r="S6" t="s">
-        <v>310</v>
-      </c>
-      <c r="T6" t="s">
-        <v>302</v>
-      </c>
-      <c r="U6" t="s">
-        <v>307</v>
-      </c>
-      <c r="V6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="K7" s="8">
-        <v>140.4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>309</v>
-      </c>
-      <c r="S7" t="s">
-        <v>310</v>
-      </c>
-      <c r="T7" t="s">
-        <v>284</v>
-      </c>
-      <c r="U7" t="s">
-        <v>284</v>
-      </c>
-      <c r="V7" t="s">
-        <v>304</v>
-      </c>
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
-      <formula>LEN(TRIM(D7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(D6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" sqref="E3">
       <formula1>Strain</formula1>
@@ -6163,7 +4990,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>Sex</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3:M3">
       <formula1>Yes_no</formula1>
     </dataValidation>
   </dataValidations>
@@ -6174,108 +5001,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="2">
-        <v>445024</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4">
-        <v>5533</v>
-      </c>
-      <c r="H4" t="s">
-        <v>320</v>
-      </c>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6292,176 +5079,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="35.1640625" customWidth="1"/>
-    <col min="17" max="17" width="29.83203125" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="35.140625" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="2">
-        <v>27889</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>379</v>
-      </c>
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" showInputMessage="1" sqref="M3">
+      <formula1>Life_stage</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R3">
       <formula1>Life_stage</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="N3">
@@ -6481,295 +5233,140 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="24.83203125" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>284</v>
-      </c>
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="33">
-        <v>42780</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" s="34">
-        <v>33323</v>
-      </c>
-      <c r="I4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L4" t="s">
-        <v>332</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>284</v>
-      </c>
-      <c r="O4" t="s">
-        <v>381</v>
-      </c>
-      <c r="P4" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>284</v>
-      </c>
-      <c r="R4" t="s">
-        <v>284</v>
-      </c>
-      <c r="S4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="F5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="34">
-        <v>41296</v>
-      </c>
-      <c r="I5" t="s">
-        <v>336</v>
-      </c>
-      <c r="J5" t="s">
-        <v>337</v>
-      </c>
-      <c r="K5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" t="s">
-        <v>284</v>
-      </c>
-      <c r="M5" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" t="s">
-        <v>284</v>
-      </c>
-      <c r="O5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>284</v>
-      </c>
-      <c r="R5" t="s">
-        <v>284</v>
-      </c>
-      <c r="S5" t="s">
-        <v>326</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(H4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" sqref="E3">
+      <formula1>anatomy</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" sqref="D3">
       <formula1>sample_type</formula1>
     </dataValidation>
@@ -6784,153 +5381,91 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="K3" s="9">
-        <v>42781</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4">
-        <v>42781</v>
-      </c>
-      <c r="L4" t="s">
-        <v>343</v>
-      </c>
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
